--- a/UbicacionesTrampas.xlsx
+++ b/UbicacionesTrampas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualStudio\GitHub\allaideas-2\trampas-barcelo-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AF84311-EABA-455D-8986-34C06CBB68C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF31AC-8F3F-4E17-8C6D-2B00445BDF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11145" xr2:uid="{E002C49E-E3A0-49AF-B2CC-DD45AB4EFF39}"/>
   </bookViews>
@@ -83,7 +83,7 @@
     <t>Pelliza, Olivos, Provincia de Buenos Aires, Argentina</t>
   </si>
   <si>
-    <t>modernización</t>
+    <t>modernizacion</t>
   </si>
 </sst>
 </file>

--- a/UbicacionesTrampas.xlsx
+++ b/UbicacionesTrampas.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualStudio\GitHub\allaideas-2\trampas-barcelo-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAAF31AC-8F3F-4E17-8C6D-2B00445BDF0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32BF2AB-C25C-47D0-B1AA-9870D62EF0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2730" yWindow="2730" windowWidth="28800" windowHeight="11145" xr2:uid="{E002C49E-E3A0-49AF-B2CC-DD45AB4EFF39}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{E002C49E-E3A0-49AF-B2CC-DD45AB4EFF39}"/>
   </bookViews>
   <sheets>
     <sheet name="UbicacionesTrampas" sheetId="1" r:id="rId1"/>
@@ -74,9 +74,6 @@
     <t>Av. Maipú 2502</t>
   </si>
   <si>
-    <t>MVL003</t>
-  </si>
-  <si>
     <t>Campo de Deportes Municipal</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>modernizacion</t>
+  </si>
+  <si>
+    <t>MVL001</t>
   </si>
 </sst>
 </file>
@@ -456,18 +456,18 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="66.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.3984375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="66.86328125" customWidth="1"/>
+    <col min="4" max="4" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="12.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -487,7 +487,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
         <v>4</v>
       </c>
@@ -498,7 +498,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E2">
         <v>-34.512226124342703</v>
@@ -507,7 +507,7 @@
         <v>-58.4902058690828</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -518,7 +518,7 @@
         <v>6</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>-34.507314578540601</v>
@@ -527,18 +527,18 @@
         <v>-58.504750981420599</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
       </c>
       <c r="C4" t="s">
         <v>6</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E4">
         <v>-34.512933493180903</v>
@@ -547,223 +547,223 @@
         <v>-58.504440928078097</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B15" s="3"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B16" s="3"/>
       <c r="C16" s="3"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B17" s="3"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B22" s="3"/>
       <c r="C22" s="3"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B23" s="3"/>
       <c r="C23" s="3"/>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B25" s="3"/>
       <c r="C25" s="3"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B29" s="3"/>
       <c r="C29" s="3"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B30" s="3"/>
       <c r="C30" s="3"/>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B31" s="3"/>
       <c r="C31" s="3"/>
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B32" s="3"/>
       <c r="C32" s="3"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B33" s="3"/>
       <c r="C33" s="3"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B34" s="3"/>
       <c r="C34" s="3"/>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B35" s="3"/>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B37" s="3"/>
       <c r="C37" s="3"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B38" s="3"/>
       <c r="C38" s="3"/>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B39" s="3"/>
       <c r="C39" s="3"/>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B40" s="3"/>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B41" s="3"/>
       <c r="C41" s="3"/>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B42" s="3"/>
       <c r="C42" s="3"/>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B43" s="3"/>
       <c r="C43" s="3"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B44" s="3"/>
       <c r="C44" s="3"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B46" s="3"/>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B47" s="3"/>
       <c r="C47" s="3"/>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B48" s="3"/>
       <c r="C48" s="3"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B49" s="3"/>
       <c r="C49" s="3"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B50" s="3"/>
       <c r="C50" s="3"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B51" s="3"/>
       <c r="C51" s="3"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B52" s="3"/>
       <c r="C52" s="3"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="1"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.45">
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
     </row>

--- a/UbicacionesTrampas.xlsx
+++ b/UbicacionesTrampas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\VisualStudio\GitHub\allaideas-2\trampas-barcelo-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E32BF2AB-C25C-47D0-B1AA-9870D62EF0EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A30B32C0-8ABF-4CBD-8FA4-E12045E6C514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="22695" windowHeight="14595" xr2:uid="{E002C49E-E3A0-49AF-B2CC-DD45AB4EFF39}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Código</t>
   </si>
@@ -84,6 +84,30 @@
   </si>
   <si>
     <t>MVL001</t>
+  </si>
+  <si>
+    <t>uapmarcelino</t>
+  </si>
+  <si>
+    <t>uapburman</t>
+  </si>
+  <si>
+    <t>UAP Marcelino</t>
+  </si>
+  <si>
+    <t>General Lavalle 1583</t>
+  </si>
+  <si>
+    <t>FLORIDA</t>
+  </si>
+  <si>
+    <t>URI Burman</t>
+  </si>
+  <si>
+    <t>Ituzaingó 5725</t>
+  </si>
+  <si>
+    <t>CARAPACHAY</t>
   </si>
 </sst>
 </file>
@@ -456,7 +480,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -547,6 +571,46 @@
         <v>-58.504440928078097</v>
       </c>
     </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5">
+        <v>-34.532160508112803</v>
+      </c>
+      <c r="F5">
+        <v>-58.480465826746901</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6">
+        <v>-34.527681854771501</v>
+      </c>
+      <c r="F6">
+        <v>-58.536327416546001</v>
+      </c>
+    </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B9" s="3"/>
     </row>
